--- a/TEST/Test.xlsx
+++ b/TEST/Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,1505 +372,2410 @@
           <t>RSSI</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.011836921968793</v>
       </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-0.950474687876806</v>
       </c>
+      <c r="B3" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.896131372473647</v>
       </c>
+      <c r="B4" t="n">
+        <v>5.666666666666666</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.8476675601677783</v>
       </c>
+      <c r="B5" t="n">
+        <v>5.999999999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>-0.8041778490726017</v>
       </c>
+      <c r="B6" t="n">
+        <v>6.333333333333332</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.7649336964247624</v>
       </c>
+      <c r="B7" t="n">
+        <v>6.666666666666665</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.729342237787165</v>
       </c>
+      <c r="B8" t="n">
+        <v>6.999999999999998</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.6969161025534447</v>
       </c>
+      <c r="B9" t="n">
+        <v>7.333333333333331</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>-0.6672509455538744</v>
       </c>
+      <c r="B10" t="n">
+        <v>7.666666666666664</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.6400084872715865</v>
       </c>
+      <c r="B11" t="n">
+        <v>7.999999999999997</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.6149035486859731</v>
       </c>
+      <c r="B12" t="n">
+        <v>8.33333333333333</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>-0.5916940243929076</v>
       </c>
+      <c r="B13" t="n">
+        <v>8.666666666666664</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>-0.5701730453146752</v>
       </c>
+      <c r="B14" t="n">
+        <v>8.999999999999998</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.5501627926982025</v>
       </c>
+      <c r="B15" t="n">
+        <v>9.333333333333332</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>-0.5315095712275024</v>
       </c>
+      <c r="B16" t="n">
+        <v>9.666666666666666</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>-0.5140798520374261</v>
       </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>-0.4977570699313674</v>
       </c>
+      <c r="B18" t="n">
+        <v>10.33333333333333</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>-0.4824390122431339</v>
       </c>
+      <c r="B19" t="n">
+        <v>10.66666666666667</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>-0.4680356756336721</v>
       </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>-0.4544674958195429</v>
       </c>
+      <c r="B21" t="n">
+        <v>11.33333333333334</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>-0.4416638766541183</v>
       </c>
+      <c r="B22" t="n">
+        <v>11.66666666666667</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.4295619611194468</v>
       </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>-0.4181055990483316</v>
       </c>
+      <c r="B24" t="n">
+        <v>12.33333333333334</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>-0.4072444757897813</v>
       </c>
+      <c r="B25" t="n">
+        <v>12.66666666666667</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>-0.3969333732828204</v>
       </c>
+      <c r="B26" t="n">
+        <v>13.00000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>-0.3871315406429972</v>
       </c>
+      <c r="B27" t="n">
+        <v>13.33333333333334</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>-0.3778021557817652</v>
       </c>
+      <c r="B28" t="n">
+        <v>13.66666666666667</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>-0.3689118630588695</v>
       </c>
+      <c r="B29" t="n">
+        <v>14.00000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>-0.3604303747282813</v>
       </c>
+      <c r="B30" t="n">
+        <v>14.33333333333334</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.3523301261385541</v>
       </c>
+      <c r="B31" t="n">
+        <v>14.66666666666667</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>-0.3445859764149191</v>
       </c>
+      <c r="B32" t="n">
+        <v>15.00000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>-0.3371749477745709</v>
       </c>
+      <c r="B33" t="n">
+        <v>15.33333333333334</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.3300759977792893</v>
       </c>
+      <c r="B34" t="n">
+        <v>15.66666666666668</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>-0.3232698197706441</v>
       </c>
+      <c r="B35" t="n">
+        <v>16.00000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>-0.3167386675009425</v>
       </c>
+      <c r="B36" t="n">
+        <v>16.33333333333334</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>-0.3104662006052195</v>
       </c>
+      <c r="B37" t="n">
+        <v>16.66666666666667</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>-0.3044373480807394</v>
       </c>
+      <c r="B38" t="n">
+        <v>17.00000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>-0.2986381873722337</v>
       </c>
+      <c r="B39" t="n">
+        <v>17.33333333333334</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>-0.2930558370206882</v>
       </c>
+      <c r="B40" t="n">
+        <v>17.66666666666667</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>-0.2876783611330325</v>
       </c>
+      <c r="B41" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>-0.2824946841816285</v>
       </c>
+      <c r="B42" t="n">
+        <v>18.33333333333334</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>-0.2774945148531032</v>
       </c>
+      <c r="B43" t="n">
+        <v>18.66666666666667</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>-0.2726682778450993</v>
       </c>
+      <c r="B44" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>-0.268007052659371</v>
       </c>
+      <c r="B45" t="n">
+        <v>19.33333333333333</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-0.2635025185681314</v>
       </c>
+      <c r="B46" t="n">
+        <v>19.66666666666666</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.2591469050391453</v>
       </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.2549329469982808</v>
       </c>
+      <c r="B48" t="n">
+        <v>20.33333333333333</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.2508538443873363</v>
       </c>
+      <c r="B49" t="n">
+        <v>20.66666666666666</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.2469032255440169</v>
       </c>
+      <c r="B50" t="n">
+        <v>20.99999999999999</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.2430751139887661</v>
       </c>
+      <c r="B51" t="n">
+        <v>21.33333333333333</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.2393638982543678</v>
       </c>
+      <c r="B52" t="n">
+        <v>21.66666666666666</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-0.2357643044383764</v>
       </c>
+      <c r="B53" t="n">
+        <v>21.99999999999999</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.2322713711952957</v>
       </c>
+      <c r="B54" t="n">
+        <v>22.33333333333332</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-0.2288804269197868</v>
       </c>
+      <c r="B55" t="n">
+        <v>22.66666666666665</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.2255870688997561</v>
       </c>
+      <c r="B56" t="n">
+        <v>22.99999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.2223871442439389</v>
       </c>
+      <c r="B57" t="n">
+        <v>23.33333333333332</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-0.2192767324101794</v>
       </c>
+      <c r="B58" t="n">
+        <v>23.66666666666665</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.2162521291796651</v>
       </c>
+      <c r="B59" t="n">
+        <v>23.99999999999998</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.2133098319397817</v>
       </c>
+      <c r="B60" t="n">
+        <v>24.33333333333331</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>-0.2104465261521256</v>
       </c>
+      <c r="B61" t="n">
+        <v>24.66666666666665</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-0.2076590728961918</v>
       </c>
+      <c r="B62" t="n">
+        <v>24.99999999999998</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.2049444973900307</v>
       </c>
+      <c r="B63" t="n">
+        <v>25.33333333333331</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.2022999783997506</v>
       </c>
+      <c r="B64" t="n">
+        <v>25.66666666666664</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.1997228384585981</v>
       </c>
+      <c r="B65" t="n">
+        <v>25.99999999999998</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.1972105348242223</v>
       </c>
+      <c r="B66" t="n">
+        <v>26.33333333333331</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.1947606511100872</v>
       </c>
+      <c r="B67" t="n">
+        <v>26.66666666666664</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>-0.1923708895329241</v>
       </c>
+      <c r="B68" t="n">
+        <v>26.99999999999997</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>-0.1900390637240861</v>
       </c>
+      <c r="B69" t="n">
+        <v>27.3333333333333</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>-0.1877630920576649</v>
       </c>
+      <c r="B70" t="n">
+        <v>27.66666666666664</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>-0.1855409914520436</v>
       </c>
+      <c r="B71" t="n">
+        <v>27.99999999999997</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>-0.1833708716068259</v>
       </c>
+      <c r="B72" t="n">
+        <v>28.3333333333333</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>-0.181250929639333</v>
       </c>
+      <c r="B73" t="n">
+        <v>28.66666666666663</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>-0.1791794450889483</v>
       </c>
+      <c r="B74" t="n">
+        <v>28.99999999999996</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>-0.1771547752602771</v>
       </c>
+      <c r="B75" t="n">
+        <v>29.3333333333333</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>-0.175175350878277</v>
       </c>
+      <c r="B76" t="n">
+        <v>29.66666666666663</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>-0.1732396720318405</v>
       </c>
+      <c r="B77" t="n">
+        <v>29.99999999999996</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>-0.1713463043830643</v>
       </c>
+      <c r="B78" t="n">
+        <v>30.33333333333329</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>-0.1694938756225213</v>
       </c>
+      <c r="B79" t="n">
+        <v>30.66666666666663</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>-0.1676810721520638</v>
       </c>
+      <c r="B80" t="n">
+        <v>30.99999999999996</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>-0.1659066359782742</v>
       </c>
+      <c r="B81" t="n">
+        <v>31.33333333333329</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>-0.1641693618010152</v>
       </c>
+      <c r="B82" t="n">
+        <v>31.66666666666662</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>-0.1624680942830139</v>
       </c>
+      <c r="B83" t="n">
+        <v>31.99999999999995</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>-0.1608017254876302</v>
       </c>
+      <c r="B84" t="n">
+        <v>32.33333333333329</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>-0.1591691924724898</v>
       </c>
+      <c r="B85" t="n">
+        <v>32.66666666666662</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>-0.1575694750284526</v>
       </c>
+      <c r="B86" t="n">
+        <v>32.99999999999996</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>-0.1560015935533983</v>
       </c>
+      <c r="B87" t="n">
+        <v>33.33333333333329</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>-0.1544646070518212</v>
       </c>
+      <c r="B88" t="n">
+        <v>33.66666666666663</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>-0.1529576112515088</v>
       </c>
+      <c r="B89" t="n">
+        <v>33.99999999999996</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>-0.1514797368292449</v>
       </c>
+      <c r="B90" t="n">
+        <v>34.3333333333333</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>-0.1500301477388035</v>
       </c>
+      <c r="B91" t="n">
+        <v>34.66666666666664</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>-0.1486080396334444</v>
       </c>
+      <c r="B92" t="n">
+        <v>34.99999999999997</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>-0.1472126383778516</v>
       </c>
+      <c r="B93" t="n">
+        <v>35.33333333333331</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>-0.1458431986428224</v>
       </c>
+      <c r="B94" t="n">
+        <v>35.66666666666664</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>-0.144499002577632</v>
       </c>
+      <c r="B95" t="n">
+        <v>35.99999999999998</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>-0.1431793585554146</v>
       </c>
+      <c r="B96" t="n">
+        <v>36.33333333333331</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>-0.1418835999864001</v>
       </c>
+      <c r="B97" t="n">
+        <v>36.66666666666665</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>-0.1406110841952284</v>
       </c>
+      <c r="B98" t="n">
+        <v>36.99999999999999</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>-0.1393611913578923</v>
       </c>
+      <c r="B99" t="n">
+        <v>37.33333333333332</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>-0.1381333234952109</v>
       </c>
+      <c r="B100" t="n">
+        <v>37.66666666666666</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>-0.1369269035187273</v>
       </c>
+      <c r="B101" t="n">
+        <v>37.99999999999999</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>-0.135741374326372</v>
       </c>
+      <c r="B102" t="n">
+        <v>38.33333333333333</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>-0.134576197944682</v>
       </c>
+      <c r="B103" t="n">
+        <v>38.66666666666666</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>-0.133430854714689</v>
       </c>
+      <c r="B104" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>-0.1323048425192326</v>
       </c>
+      <c r="B105" t="n">
+        <v>39.33333333333334</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>-0.1311976760488989</v>
       </c>
+      <c r="B106" t="n">
+        <v>39.66666666666667</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>-0.130108886104594</v>
       </c>
+      <c r="B107" t="n">
+        <v>40.00000000000001</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>-0.1290380189345655</v>
       </c>
+      <c r="B108" t="n">
+        <v>40.33333333333334</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>-0.1279846356038519</v>
       </c>
+      <c r="B109" t="n">
+        <v>40.66666666666668</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>-0.126948311394429</v>
       </c>
+      <c r="B110" t="n">
+        <v>41.00000000000001</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>-0.1259286352341462</v>
       </c>
+      <c r="B111" t="n">
+        <v>41.33333333333335</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>-0.1249252091531901</v>
       </c>
+      <c r="B112" t="n">
+        <v>41.66666666666669</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>-0.123937647766013</v>
       </c>
+      <c r="B113" t="n">
+        <v>42.00000000000002</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>-0.1229655777780181</v>
       </c>
+      <c r="B114" t="n">
+        <v>42.33333333333336</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>-0.1220086375148384</v>
       </c>
+      <c r="B115" t="n">
+        <v>42.66666666666669</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>-0.1210664764739278</v>
       </c>
+      <c r="B116" t="n">
+        <v>43.00000000000003</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>-0.1201387548962742</v>
       </c>
+      <c r="B117" t="n">
+        <v>43.33333333333336</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>-0.1192251433580935</v>
       </c>
+      <c r="B118" t="n">
+        <v>43.6666666666667</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>-0.1183253223806133</v>
       </c>
+      <c r="B119" t="n">
+        <v>44.00000000000004</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>-0.1174389820577488</v>
       </c>
+      <c r="B120" t="n">
+        <v>44.33333333333337</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>-0.1165658217001777</v>
       </c>
+      <c r="B121" t="n">
+        <v>44.66666666666671</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>-0.1157055494951322</v>
       </c>
+      <c r="B122" t="n">
+        <v>45.00000000000004</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>-0.1148578821814397</v>
       </c>
+      <c r="B123" t="n">
+        <v>45.33333333333338</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>-0.1140225447383472</v>
       </c>
+      <c r="B124" t="n">
+        <v>45.66666666666671</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>-0.1131992700881881</v>
       </c>
+      <c r="B125" t="n">
+        <v>46.00000000000005</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>-0.112387798811568</v>
       </c>
+      <c r="B126" t="n">
+        <v>46.33333333333339</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>-0.111587878874829</v>
       </c>
+      <c r="B127" t="n">
+        <v>46.66666666666672</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>-0.1107992653691099</v>
       </c>
+      <c r="B128" t="n">
+        <v>47.00000000000006</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>-0.1100217202604057</v>
       </c>
+      <c r="B129" t="n">
+        <v>47.33333333333339</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
         <v>-0.1092550121497737</v>
       </c>
+      <c r="B130" t="n">
+        <v>47.66666666666673</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>-0.1084989160440841</v>
       </c>
+      <c r="B131" t="n">
+        <v>48.00000000000006</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
         <v>-0.1077532131355809</v>
       </c>
+      <c r="B132" t="n">
+        <v>48.3333333333334</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>-0.107017690590979</v>
       </c>
+      <c r="B133" t="n">
+        <v>48.66666666666674</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
         <v>-0.1062921413488027</v>
       </c>
+      <c r="B134" t="n">
+        <v>49.00000000000007</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
         <v>-0.1055763639251381</v>
       </c>
+      <c r="B135" t="n">
+        <v>49.33333333333341</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
         <v>-0.1048701622270016</v>
       </c>
+      <c r="B136" t="n">
+        <v>49.66666666666674</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
         <v>-0.1041733453733258</v>
       </c>
+      <c r="B137" t="n">
+        <v>50.00000000000008</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
         <v>-0.1034857275228802</v>
       </c>
+      <c r="B138" t="n">
+        <v>50.33333333333341</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
         <v>-0.1028071277090135</v>
       </c>
+      <c r="B139" t="n">
+        <v>50.66666666666675</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
         <v>-0.1021373696810031</v>
       </c>
+      <c r="B140" t="n">
+        <v>51.00000000000009</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
         <v>-0.1014762817512178</v>
       </c>
+      <c r="B141" t="n">
+        <v>51.33333333333342</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
         <v>-0.1008236966485327</v>
       </c>
+      <c r="B142" t="n">
+        <v>51.66666666666676</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
         <v>-0.1001794513772722</v>
       </c>
+      <c r="B143" t="n">
+        <v>52.00000000000009</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>-0.09954338708132582</v>
       </c>
+      <c r="B144" t="n">
+        <v>52.33333333333343</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
         <v>-0.09891534891363563</v>
       </c>
+      <c r="B145" t="n">
+        <v>52.66666666666676</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
         <v>-0.09829518591060094</v>
       </c>
+      <c r="B146" t="n">
+        <v>53.0000000000001</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
         <v>-0.09768275087088796</v>
       </c>
+      <c r="B147" t="n">
+        <v>53.33333333333344</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
         <v>-0.09707790023919927</v>
       </c>
+      <c r="B148" t="n">
+        <v>53.66666666666677</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
         <v>-0.09648049399389436</v>
       </c>
+      <c r="B149" t="n">
+        <v>54.00000000000011</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
         <v>-0.09589039553901557</v>
       </c>
+      <c r="B150" t="n">
+        <v>54.33333333333344</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>-0.09530747160012254</v>
       </c>
+      <c r="B151" t="n">
+        <v>54.66666666666678</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
         <v>-0.09473159212397775</v>
       </c>
+      <c r="B152" t="n">
+        <v>55.00000000000011</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
         <v>-0.09416263018177062</v>
       </c>
+      <c r="B153" t="n">
+        <v>55.33333333333345</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
         <v>-0.09360046187589433</v>
       </c>
+      <c r="B154" t="n">
+        <v>55.66666666666679</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
         <v>-0.09304496624996261</v>
       </c>
+      <c r="B155" t="n">
+        <v>56.00000000000012</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
         <v>-0.092496025202081</v>
       </c>
+      <c r="B156" t="n">
+        <v>56.33333333333346</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
         <v>-0.09195352340105956</v>
       </c>
+      <c r="B157" t="n">
+        <v>56.66666666666679</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
         <v>-0.0914173482057663</v>
       </c>
+      <c r="B158" t="n">
+        <v>57.00000000000013</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
         <v>-0.09088738958699594</v>
       </c>
+      <c r="B159" t="n">
+        <v>57.33333333333346</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
         <v>-0.09036354005233704</v>
       </c>
+      <c r="B160" t="n">
+        <v>57.6666666666668</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
         <v>-0.08984569457336988</v>
       </c>
+      <c r="B161" t="n">
+        <v>58.00000000000014</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
         <v>-0.08933375051557846</v>
       </c>
+      <c r="B162" t="n">
+        <v>58.33333333333347</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
         <v>-0.08882760757042263</v>
       </c>
+      <c r="B163" t="n">
+        <v>58.66666666666681</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
         <v>-0.08832716768985449</v>
       </c>
+      <c r="B164" t="n">
+        <v>59.00000000000014</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
         <v>-0.08783233502306587</v>
       </c>
+      <c r="B165" t="n">
+        <v>59.33333333333348</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
         <v>-0.08734301585521109</v>
       </c>
+      <c r="B166" t="n">
+        <v>59.66666666666681</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
         <v>-0.08685911854820461</v>
       </c>
+      <c r="B167" t="n">
+        <v>60.00000000000015</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
         <v>-0.08638055348365015</v>
       </c>
+      <c r="B168" t="n">
+        <v>60.33333333333348</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
         <v>-0.08590723300729053</v>
       </c>
+      <c r="B169" t="n">
+        <v>60.66666666666682</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
         <v>-0.08543907137577378</v>
       </c>
+      <c r="B170" t="n">
+        <v>61.00000000000016</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
         <v>-0.08497598470452772</v>
       </c>
+      <c r="B171" t="n">
+        <v>61.33333333333349</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
         <v>-0.08451789091797934</v>
       </c>
+      <c r="B172" t="n">
+        <v>61.66666666666683</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
         <v>-0.08406470970084001</v>
       </c>
+      <c r="B173" t="n">
+        <v>62.00000000000016</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
         <v>-0.08361636245122384</v>
       </c>
+      <c r="B174" t="n">
+        <v>62.3333333333335</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
         <v>-0.08317277223527242</v>
       </c>
+      <c r="B175" t="n">
+        <v>62.66666666666683</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>-0.08273386374301595</v>
       </c>
+      <c r="B176" t="n">
+        <v>63.00000000000017</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
         <v>-0.08229956324584009</v>
       </c>
+      <c r="B177" t="n">
+        <v>63.33333333333351</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
         <v>-0.08186979855517507</v>
       </c>
+      <c r="B178" t="n">
+        <v>63.66666666666684</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
         <v>-0.08144449898249206</v>
       </c>
+      <c r="B179" t="n">
+        <v>64.00000000000017</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
         <v>-0.08102359530052183</v>
       </c>
+      <c r="B180" t="n">
+        <v>64.3333333333335</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
         <v>-0.08060701970573803</v>
       </c>
+      <c r="B181" t="n">
+        <v>64.66666666666683</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
         <v>-0.08019470578187793</v>
       </c>
+      <c r="B182" t="n">
+        <v>65.00000000000016</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
         <v>-0.07978658846472797</v>
       </c>
+      <c r="B183" t="n">
+        <v>65.33333333333348</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
         <v>-0.07938260400776187</v>
       </c>
+      <c r="B184" t="n">
+        <v>65.66666666666681</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
         <v>-0.07898268994912883</v>
       </c>
+      <c r="B185" t="n">
+        <v>66.00000000000014</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
         <v>-0.07858678507932382</v>
       </c>
+      <c r="B186" t="n">
+        <v>66.33333333333347</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
         <v>-0.07819482940992373</v>
       </c>
+      <c r="B187" t="n">
+        <v>66.6666666666668</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
         <v>-0.07780676414346033</v>
       </c>
+      <c r="B188" t="n">
+        <v>67.00000000000013</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
         <v>-0.07742253164387591</v>
       </c>
+      <c r="B189" t="n">
+        <v>67.33333333333346</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
         <v>-0.07704207540795949</v>
       </c>
+      <c r="B190" t="n">
+        <v>67.66666666666679</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
         <v>-0.0766653400377777</v>
       </c>
+      <c r="B191" t="n">
+        <v>68.00000000000011</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
         <v>-0.07629227121370263</v>
       </c>
+      <c r="B192" t="n">
+        <v>68.33333333333344</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
         <v>-0.07592281566829229</v>
       </c>
+      <c r="B193" t="n">
+        <v>68.66666666666677</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
         <v>-0.07555692116096679</v>
       </c>
+      <c r="B194" t="n">
+        <v>69.0000000000001</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
         <v>-0.07519453645335261</v>
       </c>
+      <c r="B195" t="n">
+        <v>69.33333333333343</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
         <v>-0.0748356112854367</v>
       </c>
+      <c r="B196" t="n">
+        <v>69.66666666666676</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
         <v>-0.07448009635221808</v>
       </c>
+      <c r="B197" t="n">
+        <v>70.00000000000009</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
         <v>-0.07412794328122629</v>
       </c>
+      <c r="B198" t="n">
+        <v>70.33333333333341</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
         <v>-0.07377910461049453</v>
       </c>
+      <c r="B199" t="n">
+        <v>70.66666666666674</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
         <v>-0.07343353376735706</v>
       </c>
+      <c r="B200" t="n">
+        <v>71.00000000000007</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
         <v>-0.07309118504755929</v>
       </c>
+      <c r="B201" t="n">
+        <v>71.3333333333334</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
         <v>-0.07275201359524885</v>
       </c>
+      <c r="B202" t="n">
+        <v>71.66666666666673</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
         <v>-0.0724159753833078</v>
       </c>
+      <c r="B203" t="n">
+        <v>72.00000000000006</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
         <v>-0.07208302719432425</v>
       </c>
+      <c r="B204" t="n">
+        <v>72.33333333333339</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
         <v>-0.07175312660203303</v>
       </c>
+      <c r="B205" t="n">
+        <v>72.66666666666671</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
         <v>-0.0714262319533816</v>
       </c>
+      <c r="B206" t="n">
+        <v>73.00000000000004</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
         <v>-0.07110230235083748</v>
       </c>
+      <c r="B207" t="n">
+        <v>73.33333333333337</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
         <v>-0.07078129763556262</v>
       </c>
+      <c r="B208" t="n">
+        <v>73.6666666666667</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
         <v>-0.07046317837054517</v>
       </c>
+      <c r="B209" t="n">
+        <v>74.00000000000003</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
         <v>-0.07014790582468322</v>
       </c>
+      <c r="B210" t="n">
+        <v>74.33333333333336</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
         <v>-0.06983544195691138</v>
       </c>
+      <c r="B211" t="n">
+        <v>74.66666666666669</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
         <v>-0.06952574940098089</v>
       </c>
+      <c r="B212" t="n">
+        <v>75.00000000000001</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
         <v>-0.06921879145055243</v>
       </c>
+      <c r="B213" t="n">
+        <v>75.33333333333334</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
         <v>-0.06891453204464426</v>
       </c>
+      <c r="B214" t="n">
+        <v>75.66666666666667</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
         <v>-0.06861293575357763</v>
       </c>
+      <c r="B215" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
         <v>-0.06831396776514964</v>
       </c>
+      <c r="B216" t="n">
+        <v>76.33333333333333</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
         <v>-0.06801759387130346</v>
       </c>
+      <c r="B217" t="n">
+        <v>76.66666666666666</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
         <v>-0.06772378045506855</v>
       </c>
+      <c r="B218" t="n">
+        <v>76.99999999999999</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
         <v>-0.06743249447779931</v>
       </c>
+      <c r="B219" t="n">
+        <v>77.33333333333331</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
         <v>-0.0671437034668827</v>
       </c>
+      <c r="B220" t="n">
+        <v>77.66666666666664</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
         <v>-0.06685737550351689</v>
       </c>
+      <c r="B221" t="n">
+        <v>77.99999999999997</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
         <v>-0.06657347921115786</v>
       </c>
+      <c r="B222" t="n">
+        <v>78.3333333333333</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
         <v>-0.0662919837439091</v>
       </c>
+      <c r="B223" t="n">
+        <v>78.66666666666663</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
         <v>-0.06601285877532348</v>
       </c>
+      <c r="B224" t="n">
+        <v>78.99999999999996</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
         <v>-0.06573607448768826</v>
       </c>
+      <c r="B225" t="n">
+        <v>79.33333333333329</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
         <v>-0.06546160156122482</v>
       </c>
+      <c r="B226" t="n">
+        <v>79.66666666666661</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
         <v>-0.06518941116375743</v>
       </c>
+      <c r="B227" t="n">
+        <v>79.99999999999994</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
         <v>-0.0649194749408224</v>
       </c>
+      <c r="B228" t="n">
+        <v>80.33333333333327</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
         <v>-0.06465176500549319</v>
       </c>
+      <c r="B229" t="n">
+        <v>80.6666666666666</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
         <v>-0.06438625392905806</v>
       </c>
+      <c r="B230" t="n">
+        <v>80.99999999999993</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
         <v>-0.06412291473149878</v>
       </c>
+      <c r="B231" t="n">
+        <v>81.33333333333326</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
         <v>-0.0638617208723673</v>
       </c>
+      <c r="B232" t="n">
+        <v>81.66666666666659</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
         <v>-0.06360264624194656</v>
       </c>
+      <c r="B233" t="n">
+        <v>81.99999999999991</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
         <v>-0.0633456651524682</v>
       </c>
+      <c r="B234" t="n">
+        <v>82.33333333333324</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
         <v>-0.06309075232967132</v>
       </c>
+      <c r="B235" t="n">
+        <v>82.66666666666657</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
         <v>-0.0628378829044749</v>
       </c>
+      <c r="B236" t="n">
+        <v>82.9999999999999</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
         <v>-0.06258703240492025</v>
       </c>
+      <c r="B237" t="n">
+        <v>83.33333333333323</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
         <v>-0.0623381767482698</v>
       </c>
+      <c r="B238" t="n">
+        <v>83.66666666666656</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
         <v>-0.06209129223327636</v>
       </c>
+      <c r="B239" t="n">
+        <v>83.99999999999989</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
         <v>-0.06184635553273665</v>
       </c>
+      <c r="B240" t="n">
+        <v>84.33333333333321</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
         <v>-0.06160334368601639</v>
       </c>
+      <c r="B241" t="n">
+        <v>84.66666666666654</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
         <v>-0.06136223409198749</v>
       </c>
+      <c r="B242" t="n">
+        <v>84.99999999999987</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
         <v>-0.06112300450196528</v>
       </c>
+      <c r="B243" t="n">
+        <v>85.3333333333332</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
         <v>-0.06088563301287309</v>
       </c>
+      <c r="B244" t="n">
+        <v>85.66666666666653</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
         <v>-0.06065009806059152</v>
       </c>
+      <c r="B245" t="n">
+        <v>85.99999999999986</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
         <v>-0.06041637841333625</v>
       </c>
+      <c r="B246" t="n">
+        <v>86.33333333333319</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
         <v>-0.06018445316540522</v>
       </c>
+      <c r="B247" t="n">
+        <v>86.66666666666652</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
         <v>-0.05995430173086902</v>
       </c>
+      <c r="B248" t="n">
+        <v>86.99999999999984</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
         <v>-0.05972590383744603</v>
       </c>
+      <c r="B249" t="n">
+        <v>87.33333333333317</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
         <v>-0.0594992395206333</v>
       </c>
+      <c r="B250" t="n">
+        <v>87.6666666666665</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
         <v>-0.05927428911786592</v>
       </c>
+      <c r="B251" t="n">
+        <v>87.99999999999983</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
         <v>-0.05905103326276162</v>
       </c>
+      <c r="B252" t="n">
+        <v>88.33333333333316</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
         <v>-0.05882945287964958</v>
       </c>
+      <c r="B253" t="n">
+        <v>88.66666666666649</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
         <v>-0.05860952917811346</v>
       </c>
+      <c r="B254" t="n">
+        <v>88.99999999999982</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
         <v>-0.05839124364763393</v>
       </c>
+      <c r="B255" t="n">
+        <v>89.33333333333314</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
         <v>-0.05817457805252957</v>
       </c>
+      <c r="B256" t="n">
+        <v>89.66666666666647</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
         <v>-0.0579595144265852</v>
       </c>
+      <c r="B257" t="n">
+        <v>89.9999999999998</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
         <v>-0.05774603506853282</v>
       </c>
+      <c r="B258" t="n">
+        <v>90.33333333333313</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
         <v>-0.05753412253672252</v>
       </c>
+      <c r="B259" t="n">
+        <v>90.66666666666646</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
         <v>-0.05732375964471714</v>
       </c>
+      <c r="B260" t="n">
+        <v>90.99999999999979</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
         <v>-0.05711492945647478</v>
       </c>
+      <c r="B261" t="n">
+        <v>91.33333333333312</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
         <v>-0.05690761528188659</v>
       </c>
+      <c r="B262" t="n">
+        <v>91.66666666666644</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
         <v>-0.05670180067221509</v>
       </c>
+      <c r="B263" t="n">
+        <v>91.99999999999977</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
         <v>-0.056497469415973</v>
       </c>
+      <c r="B264" t="n">
+        <v>92.3333333333331</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
         <v>-0.05629460553430476</v>
       </c>
+      <c r="B265" t="n">
+        <v>92.66666666666643</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
         <v>-0.05609319327723483</v>
       </c>
+      <c r="B266" t="n">
+        <v>92.99999999999976</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
         <v>-0.05589321711927653</v>
       </c>
+      <c r="B267" t="n">
+        <v>93.33333333333309</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
         <v>-0.05569466175555249</v>
       </c>
+      <c r="B268" t="n">
+        <v>93.66666666666642</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
         <v>-0.05549751209794351</v>
       </c>
+      <c r="B269" t="n">
+        <v>93.99999999999974</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
         <v>-0.05530175327118059</v>
       </c>
+      <c r="B270" t="n">
+        <v>94.33333333333307</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
         <v>-0.05510737060916426</v>
       </c>
+      <c r="B271" t="n">
+        <v>94.6666666666664</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
         <v>-0.05491434965122721</v>
       </c>
+      <c r="B272" t="n">
+        <v>94.99999999999973</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
         <v>-0.05472267613868098</v>
       </c>
+      <c r="B273" t="n">
+        <v>95.33333333333306</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
         <v>-0.05453233601110696</v>
       </c>
+      <c r="B274" t="n">
+        <v>95.66666666666639</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
         <v>-0.05434331540314474</v>
       </c>
+      <c r="B275" t="n">
+        <v>95.99999999999972</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
         <v>-0.05415560064093938</v>
       </c>
+      <c r="B276" t="n">
+        <v>96.33333333333304</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
         <v>-0.05396917823892977</v>
       </c>
+      <c r="B277" t="n">
+        <v>96.66666666666637</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
         <v>-0.05378403489663697</v>
       </c>
+      <c r="B278" t="n">
+        <v>96.9999999999997</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
         <v>-0.05360015749545255</v>
       </c>
+      <c r="B279" t="n">
+        <v>97.33333333333303</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
         <v>-0.05341753309552644</v>
       </c>
+      <c r="B280" t="n">
+        <v>97.66666666666636</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
         <v>-0.05323614893281103</v>
       </c>
+      <c r="B281" t="n">
+        <v>97.99999999999969</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
         <v>-0.05305599241600589</v>
       </c>
+      <c r="B282" t="n">
+        <v>98.33333333333302</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
         <v>-0.05287705112367291</v>
       </c>
+      <c r="B283" t="n">
+        <v>98.66666666666634</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
         <v>-0.0526993128014368</v>
       </c>
+      <c r="B284" t="n">
+        <v>98.99999999999967</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
         <v>-0.05252276535910028</v>
       </c>
+      <c r="B285" t="n">
+        <v>99.333333333333</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
         <v>-0.05234739686790135</v>
       </c>
+      <c r="B286" t="n">
+        <v>99.66666666666633</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
         <v>-0.0521731955579412</v>
       </c>
+      <c r="B287" t="n">
+        <v>99.99999999999966</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
         <v>-0.0520001498153988</v>
       </c>
+      <c r="B288" t="n">
+        <v>100.333333333333</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
         <v>-0.05182824818005827</v>
       </c>
+      <c r="B289" t="n">
+        <v>100.6666666666663</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
         <v>-0.05165747934280773</v>
       </c>
+      <c r="B290" t="n">
+        <v>100.9999999999996</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
         <v>-0.05148783214295349</v>
       </c>
+      <c r="B291" t="n">
+        <v>101.333333333333</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
         <v>-0.05131929556605996</v>
       </c>
+      <c r="B292" t="n">
+        <v>101.6666666666663</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
         <v>-0.05115185874140593</v>
       </c>
+      <c r="B293" t="n">
+        <v>101.9999999999996</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
         <v>-0.05098551093959713</v>
       </c>
+      <c r="B294" t="n">
+        <v>102.333333333333</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
         <v>-0.05082024157049148</v>
       </c>
+      <c r="B295" t="n">
+        <v>102.6666666666663</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
         <v>-0.05065604018072634</v>
       </c>
+      <c r="B296" t="n">
+        <v>102.9999999999996</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
         <v>-0.05049289645157273</v>
       </c>
+      <c r="B297" t="n">
+        <v>103.3333333333329</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
         <v>-0.0503308001969458</v>
       </c>
+      <c r="B298" t="n">
+        <v>103.6666666666663</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
         <v>-0.05016974136101737</v>
       </c>
+      <c r="B299" t="n">
+        <v>103.9999999999996</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
         <v>-0.05000971001626908</v>
       </c>
+      <c r="B300" t="n">
+        <v>104.3333333333329</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
         <v>-0.04985069636151707</v>
+      </c>
+      <c r="B301" t="n">
+        <v>104.6666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/TEST/Test.xlsx
+++ b/TEST/Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:C601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,6 +377,11 @@
           <t>Distance</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -385,6 +390,9 @@
       <c r="B2" t="n">
         <v>5</v>
       </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -393,6 +401,9 @@
       <c r="B3" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -401,6 +412,9 @@
       <c r="B4" t="n">
         <v>5.666666666666666</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -409,6 +423,9 @@
       <c r="B5" t="n">
         <v>5.999999999999999</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -417,6 +434,9 @@
       <c r="B6" t="n">
         <v>6.333333333333332</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -425,6 +445,9 @@
       <c r="B7" t="n">
         <v>6.666666666666665</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -433,6 +456,9 @@
       <c r="B8" t="n">
         <v>6.999999999999998</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -441,6 +467,9 @@
       <c r="B9" t="n">
         <v>7.333333333333331</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -449,6 +478,9 @@
       <c r="B10" t="n">
         <v>7.666666666666664</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -457,6 +489,9 @@
       <c r="B11" t="n">
         <v>7.999999999999997</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -465,6 +500,9 @@
       <c r="B12" t="n">
         <v>8.33333333333333</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -473,6 +511,9 @@
       <c r="B13" t="n">
         <v>8.666666666666664</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -481,6 +522,9 @@
       <c r="B14" t="n">
         <v>8.999999999999998</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -489,6 +533,9 @@
       <c r="B15" t="n">
         <v>9.333333333333332</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -497,6 +544,9 @@
       <c r="B16" t="n">
         <v>9.666666666666666</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -505,6 +555,9 @@
       <c r="B17" t="n">
         <v>10</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -513,6 +566,9 @@
       <c r="B18" t="n">
         <v>10.33333333333333</v>
       </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -521,6 +577,9 @@
       <c r="B19" t="n">
         <v>10.66666666666667</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -529,6 +588,9 @@
       <c r="B20" t="n">
         <v>11</v>
       </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -537,6 +599,9 @@
       <c r="B21" t="n">
         <v>11.33333333333334</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -545,6 +610,9 @@
       <c r="B22" t="n">
         <v>11.66666666666667</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -553,6 +621,9 @@
       <c r="B23" t="n">
         <v>12</v>
       </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -561,6 +632,9 @@
       <c r="B24" t="n">
         <v>12.33333333333334</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -569,6 +643,9 @@
       <c r="B25" t="n">
         <v>12.66666666666667</v>
       </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -577,6 +654,9 @@
       <c r="B26" t="n">
         <v>13.00000000000001</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -585,6 +665,9 @@
       <c r="B27" t="n">
         <v>13.33333333333334</v>
       </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -593,6 +676,9 @@
       <c r="B28" t="n">
         <v>13.66666666666667</v>
       </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -601,6 +687,9 @@
       <c r="B29" t="n">
         <v>14.00000000000001</v>
       </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -609,6 +698,9 @@
       <c r="B30" t="n">
         <v>14.33333333333334</v>
       </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -617,6 +709,9 @@
       <c r="B31" t="n">
         <v>14.66666666666667</v>
       </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -625,6 +720,9 @@
       <c r="B32" t="n">
         <v>15.00000000000001</v>
       </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -633,6 +731,9 @@
       <c r="B33" t="n">
         <v>15.33333333333334</v>
       </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -641,6 +742,9 @@
       <c r="B34" t="n">
         <v>15.66666666666668</v>
       </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -649,6 +753,9 @@
       <c r="B35" t="n">
         <v>16.00000000000001</v>
       </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -657,6 +764,9 @@
       <c r="B36" t="n">
         <v>16.33333333333334</v>
       </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -665,6 +775,9 @@
       <c r="B37" t="n">
         <v>16.66666666666667</v>
       </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -673,6 +786,9 @@
       <c r="B38" t="n">
         <v>17.00000000000001</v>
       </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -681,6 +797,9 @@
       <c r="B39" t="n">
         <v>17.33333333333334</v>
       </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -689,6 +808,9 @@
       <c r="B40" t="n">
         <v>17.66666666666667</v>
       </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -697,6 +819,9 @@
       <c r="B41" t="n">
         <v>18</v>
       </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -705,6 +830,9 @@
       <c r="B42" t="n">
         <v>18.33333333333334</v>
       </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -713,6 +841,9 @@
       <c r="B43" t="n">
         <v>18.66666666666667</v>
       </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -721,6 +852,9 @@
       <c r="B44" t="n">
         <v>19</v>
       </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -729,6 +863,9 @@
       <c r="B45" t="n">
         <v>19.33333333333333</v>
       </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -737,6 +874,9 @@
       <c r="B46" t="n">
         <v>19.66666666666666</v>
       </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -745,6 +885,9 @@
       <c r="B47" t="n">
         <v>20</v>
       </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -753,6 +896,9 @@
       <c r="B48" t="n">
         <v>20.33333333333333</v>
       </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -761,6 +907,9 @@
       <c r="B49" t="n">
         <v>20.66666666666666</v>
       </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -769,6 +918,9 @@
       <c r="B50" t="n">
         <v>20.99999999999999</v>
       </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -777,6 +929,9 @@
       <c r="B51" t="n">
         <v>21.33333333333333</v>
       </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -785,6 +940,9 @@
       <c r="B52" t="n">
         <v>21.66666666666666</v>
       </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -793,6 +951,9 @@
       <c r="B53" t="n">
         <v>21.99999999999999</v>
       </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -801,6 +962,9 @@
       <c r="B54" t="n">
         <v>22.33333333333332</v>
       </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -809,6 +973,9 @@
       <c r="B55" t="n">
         <v>22.66666666666665</v>
       </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -817,6 +984,9 @@
       <c r="B56" t="n">
         <v>22.99999999999999</v>
       </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -825,6 +995,9 @@
       <c r="B57" t="n">
         <v>23.33333333333332</v>
       </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -833,6 +1006,9 @@
       <c r="B58" t="n">
         <v>23.66666666666665</v>
       </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -841,6 +1017,9 @@
       <c r="B59" t="n">
         <v>23.99999999999998</v>
       </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -849,6 +1028,9 @@
       <c r="B60" t="n">
         <v>24.33333333333331</v>
       </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -857,6 +1039,9 @@
       <c r="B61" t="n">
         <v>24.66666666666665</v>
       </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -865,6 +1050,9 @@
       <c r="B62" t="n">
         <v>24.99999999999998</v>
       </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -873,6 +1061,9 @@
       <c r="B63" t="n">
         <v>25.33333333333331</v>
       </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -881,6 +1072,9 @@
       <c r="B64" t="n">
         <v>25.66666666666664</v>
       </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -889,6 +1083,9 @@
       <c r="B65" t="n">
         <v>25.99999999999998</v>
       </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -897,6 +1094,9 @@
       <c r="B66" t="n">
         <v>26.33333333333331</v>
       </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -905,6 +1105,9 @@
       <c r="B67" t="n">
         <v>26.66666666666664</v>
       </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -913,6 +1116,9 @@
       <c r="B68" t="n">
         <v>26.99999999999997</v>
       </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -921,6 +1127,9 @@
       <c r="B69" t="n">
         <v>27.3333333333333</v>
       </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -929,6 +1138,9 @@
       <c r="B70" t="n">
         <v>27.66666666666664</v>
       </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -937,6 +1149,9 @@
       <c r="B71" t="n">
         <v>27.99999999999997</v>
       </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -945,6 +1160,9 @@
       <c r="B72" t="n">
         <v>28.3333333333333</v>
       </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -953,6 +1171,9 @@
       <c r="B73" t="n">
         <v>28.66666666666663</v>
       </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -961,6 +1182,9 @@
       <c r="B74" t="n">
         <v>28.99999999999996</v>
       </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -969,6 +1193,9 @@
       <c r="B75" t="n">
         <v>29.3333333333333</v>
       </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -977,6 +1204,9 @@
       <c r="B76" t="n">
         <v>29.66666666666663</v>
       </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -985,6 +1215,9 @@
       <c r="B77" t="n">
         <v>29.99999999999996</v>
       </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -993,6 +1226,9 @@
       <c r="B78" t="n">
         <v>30.33333333333329</v>
       </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1001,6 +1237,9 @@
       <c r="B79" t="n">
         <v>30.66666666666663</v>
       </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1009,6 +1248,9 @@
       <c r="B80" t="n">
         <v>30.99999999999996</v>
       </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1017,6 +1259,9 @@
       <c r="B81" t="n">
         <v>31.33333333333329</v>
       </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1025,6 +1270,9 @@
       <c r="B82" t="n">
         <v>31.66666666666662</v>
       </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1033,6 +1281,9 @@
       <c r="B83" t="n">
         <v>31.99999999999995</v>
       </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1041,6 +1292,9 @@
       <c r="B84" t="n">
         <v>32.33333333333329</v>
       </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1049,6 +1303,9 @@
       <c r="B85" t="n">
         <v>32.66666666666662</v>
       </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1057,6 +1314,9 @@
       <c r="B86" t="n">
         <v>32.99999999999996</v>
       </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1065,6 +1325,9 @@
       <c r="B87" t="n">
         <v>33.33333333333329</v>
       </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1073,6 +1336,9 @@
       <c r="B88" t="n">
         <v>33.66666666666663</v>
       </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1081,6 +1347,9 @@
       <c r="B89" t="n">
         <v>33.99999999999996</v>
       </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1089,6 +1358,9 @@
       <c r="B90" t="n">
         <v>34.3333333333333</v>
       </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1097,6 +1369,9 @@
       <c r="B91" t="n">
         <v>34.66666666666664</v>
       </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1105,6 +1380,9 @@
       <c r="B92" t="n">
         <v>34.99999999999997</v>
       </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1113,6 +1391,9 @@
       <c r="B93" t="n">
         <v>35.33333333333331</v>
       </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1121,6 +1402,9 @@
       <c r="B94" t="n">
         <v>35.66666666666664</v>
       </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1129,6 +1413,9 @@
       <c r="B95" t="n">
         <v>35.99999999999998</v>
       </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1137,6 +1424,9 @@
       <c r="B96" t="n">
         <v>36.33333333333331</v>
       </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1145,6 +1435,9 @@
       <c r="B97" t="n">
         <v>36.66666666666665</v>
       </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1153,6 +1446,9 @@
       <c r="B98" t="n">
         <v>36.99999999999999</v>
       </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1161,6 +1457,9 @@
       <c r="B99" t="n">
         <v>37.33333333333332</v>
       </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1169,6 +1468,9 @@
       <c r="B100" t="n">
         <v>37.66666666666666</v>
       </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1177,6 +1479,9 @@
       <c r="B101" t="n">
         <v>37.99999999999999</v>
       </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1185,6 +1490,9 @@
       <c r="B102" t="n">
         <v>38.33333333333333</v>
       </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1193,6 +1501,9 @@
       <c r="B103" t="n">
         <v>38.66666666666666</v>
       </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1201,6 +1512,9 @@
       <c r="B104" t="n">
         <v>39</v>
       </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1209,6 +1523,9 @@
       <c r="B105" t="n">
         <v>39.33333333333334</v>
       </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1217,6 +1534,9 @@
       <c r="B106" t="n">
         <v>39.66666666666667</v>
       </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1225,6 +1545,9 @@
       <c r="B107" t="n">
         <v>40.00000000000001</v>
       </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1233,6 +1556,9 @@
       <c r="B108" t="n">
         <v>40.33333333333334</v>
       </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1241,6 +1567,9 @@
       <c r="B109" t="n">
         <v>40.66666666666668</v>
       </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1249,6 +1578,9 @@
       <c r="B110" t="n">
         <v>41.00000000000001</v>
       </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1257,6 +1589,9 @@
       <c r="B111" t="n">
         <v>41.33333333333335</v>
       </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1265,6 +1600,9 @@
       <c r="B112" t="n">
         <v>41.66666666666669</v>
       </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1273,6 +1611,9 @@
       <c r="B113" t="n">
         <v>42.00000000000002</v>
       </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1281,6 +1622,9 @@
       <c r="B114" t="n">
         <v>42.33333333333336</v>
       </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1289,6 +1633,9 @@
       <c r="B115" t="n">
         <v>42.66666666666669</v>
       </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1297,6 +1644,9 @@
       <c r="B116" t="n">
         <v>43.00000000000003</v>
       </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1305,6 +1655,9 @@
       <c r="B117" t="n">
         <v>43.33333333333336</v>
       </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1313,6 +1666,9 @@
       <c r="B118" t="n">
         <v>43.6666666666667</v>
       </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1321,6 +1677,9 @@
       <c r="B119" t="n">
         <v>44.00000000000004</v>
       </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1329,6 +1688,9 @@
       <c r="B120" t="n">
         <v>44.33333333333337</v>
       </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1337,6 +1699,9 @@
       <c r="B121" t="n">
         <v>44.66666666666671</v>
       </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1345,6 +1710,9 @@
       <c r="B122" t="n">
         <v>45.00000000000004</v>
       </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1353,6 +1721,9 @@
       <c r="B123" t="n">
         <v>45.33333333333338</v>
       </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1361,6 +1732,9 @@
       <c r="B124" t="n">
         <v>45.66666666666671</v>
       </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1369,6 +1743,9 @@
       <c r="B125" t="n">
         <v>46.00000000000005</v>
       </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1377,6 +1754,9 @@
       <c r="B126" t="n">
         <v>46.33333333333339</v>
       </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1385,6 +1765,9 @@
       <c r="B127" t="n">
         <v>46.66666666666672</v>
       </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1393,6 +1776,9 @@
       <c r="B128" t="n">
         <v>47.00000000000006</v>
       </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1401,6 +1787,9 @@
       <c r="B129" t="n">
         <v>47.33333333333339</v>
       </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1409,6 +1798,9 @@
       <c r="B130" t="n">
         <v>47.66666666666673</v>
       </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1417,6 +1809,9 @@
       <c r="B131" t="n">
         <v>48.00000000000006</v>
       </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1425,6 +1820,9 @@
       <c r="B132" t="n">
         <v>48.3333333333334</v>
       </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1433,6 +1831,9 @@
       <c r="B133" t="n">
         <v>48.66666666666674</v>
       </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1441,6 +1842,9 @@
       <c r="B134" t="n">
         <v>49.00000000000007</v>
       </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1449,6 +1853,9 @@
       <c r="B135" t="n">
         <v>49.33333333333341</v>
       </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1457,6 +1864,9 @@
       <c r="B136" t="n">
         <v>49.66666666666674</v>
       </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1465,6 +1875,9 @@
       <c r="B137" t="n">
         <v>50.00000000000008</v>
       </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1473,6 +1886,9 @@
       <c r="B138" t="n">
         <v>50.33333333333341</v>
       </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1481,6 +1897,9 @@
       <c r="B139" t="n">
         <v>50.66666666666675</v>
       </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1489,6 +1908,9 @@
       <c r="B140" t="n">
         <v>51.00000000000009</v>
       </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1497,6 +1919,9 @@
       <c r="B141" t="n">
         <v>51.33333333333342</v>
       </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -1505,6 +1930,9 @@
       <c r="B142" t="n">
         <v>51.66666666666676</v>
       </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -1513,6 +1941,9 @@
       <c r="B143" t="n">
         <v>52.00000000000009</v>
       </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -1521,6 +1952,9 @@
       <c r="B144" t="n">
         <v>52.33333333333343</v>
       </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1529,6 +1963,9 @@
       <c r="B145" t="n">
         <v>52.66666666666676</v>
       </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -1537,6 +1974,9 @@
       <c r="B146" t="n">
         <v>53.0000000000001</v>
       </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -1545,6 +1985,9 @@
       <c r="B147" t="n">
         <v>53.33333333333344</v>
       </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -1553,6 +1996,9 @@
       <c r="B148" t="n">
         <v>53.66666666666677</v>
       </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1561,6 +2007,9 @@
       <c r="B149" t="n">
         <v>54.00000000000011</v>
       </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -1569,6 +2018,9 @@
       <c r="B150" t="n">
         <v>54.33333333333344</v>
       </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -1577,6 +2029,9 @@
       <c r="B151" t="n">
         <v>54.66666666666678</v>
       </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -1585,6 +2040,9 @@
       <c r="B152" t="n">
         <v>55.00000000000011</v>
       </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -1593,6 +2051,9 @@
       <c r="B153" t="n">
         <v>55.33333333333345</v>
       </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -1601,6 +2062,9 @@
       <c r="B154" t="n">
         <v>55.66666666666679</v>
       </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -1609,6 +2073,9 @@
       <c r="B155" t="n">
         <v>56.00000000000012</v>
       </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -1617,6 +2084,9 @@
       <c r="B156" t="n">
         <v>56.33333333333346</v>
       </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1625,6 +2095,9 @@
       <c r="B157" t="n">
         <v>56.66666666666679</v>
       </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -1633,6 +2106,9 @@
       <c r="B158" t="n">
         <v>57.00000000000013</v>
       </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -1641,6 +2117,9 @@
       <c r="B159" t="n">
         <v>57.33333333333346</v>
       </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -1649,6 +2128,9 @@
       <c r="B160" t="n">
         <v>57.6666666666668</v>
       </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1657,6 +2139,9 @@
       <c r="B161" t="n">
         <v>58.00000000000014</v>
       </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -1665,6 +2150,9 @@
       <c r="B162" t="n">
         <v>58.33333333333347</v>
       </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -1673,6 +2161,9 @@
       <c r="B163" t="n">
         <v>58.66666666666681</v>
       </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -1681,6 +2172,9 @@
       <c r="B164" t="n">
         <v>59.00000000000014</v>
       </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -1689,6 +2183,9 @@
       <c r="B165" t="n">
         <v>59.33333333333348</v>
       </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -1697,6 +2194,9 @@
       <c r="B166" t="n">
         <v>59.66666666666681</v>
       </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -1705,6 +2205,9 @@
       <c r="B167" t="n">
         <v>60.00000000000015</v>
       </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -1713,6 +2216,9 @@
       <c r="B168" t="n">
         <v>60.33333333333348</v>
       </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -1721,6 +2227,9 @@
       <c r="B169" t="n">
         <v>60.66666666666682</v>
       </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -1729,6 +2238,9 @@
       <c r="B170" t="n">
         <v>61.00000000000016</v>
       </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -1737,6 +2249,9 @@
       <c r="B171" t="n">
         <v>61.33333333333349</v>
       </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -1745,6 +2260,9 @@
       <c r="B172" t="n">
         <v>61.66666666666683</v>
       </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -1753,6 +2271,9 @@
       <c r="B173" t="n">
         <v>62.00000000000016</v>
       </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -1761,6 +2282,9 @@
       <c r="B174" t="n">
         <v>62.3333333333335</v>
       </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -1769,6 +2293,9 @@
       <c r="B175" t="n">
         <v>62.66666666666683</v>
       </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -1777,6 +2304,9 @@
       <c r="B176" t="n">
         <v>63.00000000000017</v>
       </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -1785,6 +2315,9 @@
       <c r="B177" t="n">
         <v>63.33333333333351</v>
       </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -1793,6 +2326,9 @@
       <c r="B178" t="n">
         <v>63.66666666666684</v>
       </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -1801,6 +2337,9 @@
       <c r="B179" t="n">
         <v>64.00000000000017</v>
       </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -1809,6 +2348,9 @@
       <c r="B180" t="n">
         <v>64.3333333333335</v>
       </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -1817,6 +2359,9 @@
       <c r="B181" t="n">
         <v>64.66666666666683</v>
       </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -1825,6 +2370,9 @@
       <c r="B182" t="n">
         <v>65.00000000000016</v>
       </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -1833,6 +2381,9 @@
       <c r="B183" t="n">
         <v>65.33333333333348</v>
       </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -1841,6 +2392,9 @@
       <c r="B184" t="n">
         <v>65.66666666666681</v>
       </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -1849,6 +2403,9 @@
       <c r="B185" t="n">
         <v>66.00000000000014</v>
       </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -1857,6 +2414,9 @@
       <c r="B186" t="n">
         <v>66.33333333333347</v>
       </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -1865,6 +2425,9 @@
       <c r="B187" t="n">
         <v>66.6666666666668</v>
       </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -1873,6 +2436,9 @@
       <c r="B188" t="n">
         <v>67.00000000000013</v>
       </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -1881,6 +2447,9 @@
       <c r="B189" t="n">
         <v>67.33333333333346</v>
       </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -1889,6 +2458,9 @@
       <c r="B190" t="n">
         <v>67.66666666666679</v>
       </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -1897,6 +2469,9 @@
       <c r="B191" t="n">
         <v>68.00000000000011</v>
       </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -1905,6 +2480,9 @@
       <c r="B192" t="n">
         <v>68.33333333333344</v>
       </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -1913,6 +2491,9 @@
       <c r="B193" t="n">
         <v>68.66666666666677</v>
       </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -1921,6 +2502,9 @@
       <c r="B194" t="n">
         <v>69.0000000000001</v>
       </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -1929,6 +2513,9 @@
       <c r="B195" t="n">
         <v>69.33333333333343</v>
       </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -1937,6 +2524,9 @@
       <c r="B196" t="n">
         <v>69.66666666666676</v>
       </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -1945,6 +2535,9 @@
       <c r="B197" t="n">
         <v>70.00000000000009</v>
       </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -1953,6 +2546,9 @@
       <c r="B198" t="n">
         <v>70.33333333333341</v>
       </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -1961,6 +2557,9 @@
       <c r="B199" t="n">
         <v>70.66666666666674</v>
       </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -1969,6 +2568,9 @@
       <c r="B200" t="n">
         <v>71.00000000000007</v>
       </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -1977,6 +2579,9 @@
       <c r="B201" t="n">
         <v>71.3333333333334</v>
       </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -1985,6 +2590,9 @@
       <c r="B202" t="n">
         <v>71.66666666666673</v>
       </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -1993,6 +2601,9 @@
       <c r="B203" t="n">
         <v>72.00000000000006</v>
       </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -2001,6 +2612,9 @@
       <c r="B204" t="n">
         <v>72.33333333333339</v>
       </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -2009,6 +2623,9 @@
       <c r="B205" t="n">
         <v>72.66666666666671</v>
       </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -2017,6 +2634,9 @@
       <c r="B206" t="n">
         <v>73.00000000000004</v>
       </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -2025,6 +2645,9 @@
       <c r="B207" t="n">
         <v>73.33333333333337</v>
       </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -2033,6 +2656,9 @@
       <c r="B208" t="n">
         <v>73.6666666666667</v>
       </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -2041,6 +2667,9 @@
       <c r="B209" t="n">
         <v>74.00000000000003</v>
       </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -2049,6 +2678,9 @@
       <c r="B210" t="n">
         <v>74.33333333333336</v>
       </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -2057,6 +2689,9 @@
       <c r="B211" t="n">
         <v>74.66666666666669</v>
       </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -2065,6 +2700,9 @@
       <c r="B212" t="n">
         <v>75.00000000000001</v>
       </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2073,6 +2711,9 @@
       <c r="B213" t="n">
         <v>75.33333333333334</v>
       </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -2081,6 +2722,9 @@
       <c r="B214" t="n">
         <v>75.66666666666667</v>
       </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -2089,6 +2733,9 @@
       <c r="B215" t="n">
         <v>76</v>
       </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2097,6 +2744,9 @@
       <c r="B216" t="n">
         <v>76.33333333333333</v>
       </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -2105,6 +2755,9 @@
       <c r="B217" t="n">
         <v>76.66666666666666</v>
       </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -2113,6 +2766,9 @@
       <c r="B218" t="n">
         <v>76.99999999999999</v>
       </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -2121,6 +2777,9 @@
       <c r="B219" t="n">
         <v>77.33333333333331</v>
       </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -2129,6 +2788,9 @@
       <c r="B220" t="n">
         <v>77.66666666666664</v>
       </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -2137,6 +2799,9 @@
       <c r="B221" t="n">
         <v>77.99999999999997</v>
       </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -2145,6 +2810,9 @@
       <c r="B222" t="n">
         <v>78.3333333333333</v>
       </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2153,6 +2821,9 @@
       <c r="B223" t="n">
         <v>78.66666666666663</v>
       </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -2161,6 +2832,9 @@
       <c r="B224" t="n">
         <v>78.99999999999996</v>
       </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -2169,6 +2843,9 @@
       <c r="B225" t="n">
         <v>79.33333333333329</v>
       </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -2177,6 +2854,9 @@
       <c r="B226" t="n">
         <v>79.66666666666661</v>
       </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -2185,6 +2865,9 @@
       <c r="B227" t="n">
         <v>79.99999999999994</v>
       </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -2193,6 +2876,9 @@
       <c r="B228" t="n">
         <v>80.33333333333327</v>
       </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -2201,6 +2887,9 @@
       <c r="B229" t="n">
         <v>80.6666666666666</v>
       </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -2209,6 +2898,9 @@
       <c r="B230" t="n">
         <v>80.99999999999993</v>
       </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -2217,6 +2909,9 @@
       <c r="B231" t="n">
         <v>81.33333333333326</v>
       </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -2225,6 +2920,9 @@
       <c r="B232" t="n">
         <v>81.66666666666659</v>
       </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -2233,6 +2931,9 @@
       <c r="B233" t="n">
         <v>81.99999999999991</v>
       </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -2241,6 +2942,9 @@
       <c r="B234" t="n">
         <v>82.33333333333324</v>
       </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -2249,6 +2953,9 @@
       <c r="B235" t="n">
         <v>82.66666666666657</v>
       </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -2257,6 +2964,9 @@
       <c r="B236" t="n">
         <v>82.9999999999999</v>
       </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -2265,6 +2975,9 @@
       <c r="B237" t="n">
         <v>83.33333333333323</v>
       </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -2273,6 +2986,9 @@
       <c r="B238" t="n">
         <v>83.66666666666656</v>
       </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -2281,6 +2997,9 @@
       <c r="B239" t="n">
         <v>83.99999999999989</v>
       </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -2289,6 +3008,9 @@
       <c r="B240" t="n">
         <v>84.33333333333321</v>
       </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -2297,6 +3019,9 @@
       <c r="B241" t="n">
         <v>84.66666666666654</v>
       </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -2305,6 +3030,9 @@
       <c r="B242" t="n">
         <v>84.99999999999987</v>
       </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -2313,6 +3041,9 @@
       <c r="B243" t="n">
         <v>85.3333333333332</v>
       </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -2321,6 +3052,9 @@
       <c r="B244" t="n">
         <v>85.66666666666653</v>
       </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -2329,6 +3063,9 @@
       <c r="B245" t="n">
         <v>85.99999999999986</v>
       </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -2337,6 +3074,9 @@
       <c r="B246" t="n">
         <v>86.33333333333319</v>
       </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -2345,6 +3085,9 @@
       <c r="B247" t="n">
         <v>86.66666666666652</v>
       </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -2353,6 +3096,9 @@
       <c r="B248" t="n">
         <v>86.99999999999984</v>
       </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -2361,6 +3107,9 @@
       <c r="B249" t="n">
         <v>87.33333333333317</v>
       </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -2369,6 +3118,9 @@
       <c r="B250" t="n">
         <v>87.6666666666665</v>
       </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -2377,6 +3129,9 @@
       <c r="B251" t="n">
         <v>87.99999999999983</v>
       </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -2385,6 +3140,9 @@
       <c r="B252" t="n">
         <v>88.33333333333316</v>
       </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -2393,6 +3151,9 @@
       <c r="B253" t="n">
         <v>88.66666666666649</v>
       </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -2401,6 +3162,9 @@
       <c r="B254" t="n">
         <v>88.99999999999982</v>
       </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -2409,6 +3173,9 @@
       <c r="B255" t="n">
         <v>89.33333333333314</v>
       </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -2417,6 +3184,9 @@
       <c r="B256" t="n">
         <v>89.66666666666647</v>
       </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -2425,6 +3195,9 @@
       <c r="B257" t="n">
         <v>89.9999999999998</v>
       </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -2433,6 +3206,9 @@
       <c r="B258" t="n">
         <v>90.33333333333313</v>
       </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -2441,6 +3217,9 @@
       <c r="B259" t="n">
         <v>90.66666666666646</v>
       </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -2449,6 +3228,9 @@
       <c r="B260" t="n">
         <v>90.99999999999979</v>
       </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -2457,6 +3239,9 @@
       <c r="B261" t="n">
         <v>91.33333333333312</v>
       </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -2465,6 +3250,9 @@
       <c r="B262" t="n">
         <v>91.66666666666644</v>
       </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -2473,6 +3261,9 @@
       <c r="B263" t="n">
         <v>91.99999999999977</v>
       </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -2481,6 +3272,9 @@
       <c r="B264" t="n">
         <v>92.3333333333331</v>
       </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -2489,6 +3283,9 @@
       <c r="B265" t="n">
         <v>92.66666666666643</v>
       </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -2497,6 +3294,9 @@
       <c r="B266" t="n">
         <v>92.99999999999976</v>
       </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -2505,6 +3305,9 @@
       <c r="B267" t="n">
         <v>93.33333333333309</v>
       </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -2513,6 +3316,9 @@
       <c r="B268" t="n">
         <v>93.66666666666642</v>
       </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -2521,6 +3327,9 @@
       <c r="B269" t="n">
         <v>93.99999999999974</v>
       </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -2529,6 +3338,9 @@
       <c r="B270" t="n">
         <v>94.33333333333307</v>
       </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -2537,6 +3349,9 @@
       <c r="B271" t="n">
         <v>94.6666666666664</v>
       </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -2545,6 +3360,9 @@
       <c r="B272" t="n">
         <v>94.99999999999973</v>
       </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -2553,6 +3371,9 @@
       <c r="B273" t="n">
         <v>95.33333333333306</v>
       </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -2561,6 +3382,9 @@
       <c r="B274" t="n">
         <v>95.66666666666639</v>
       </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -2569,6 +3393,9 @@
       <c r="B275" t="n">
         <v>95.99999999999972</v>
       </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -2577,6 +3404,9 @@
       <c r="B276" t="n">
         <v>96.33333333333304</v>
       </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -2585,6 +3415,9 @@
       <c r="B277" t="n">
         <v>96.66666666666637</v>
       </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -2593,6 +3426,9 @@
       <c r="B278" t="n">
         <v>96.9999999999997</v>
       </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -2601,6 +3437,9 @@
       <c r="B279" t="n">
         <v>97.33333333333303</v>
       </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -2609,6 +3448,9 @@
       <c r="B280" t="n">
         <v>97.66666666666636</v>
       </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -2617,6 +3459,9 @@
       <c r="B281" t="n">
         <v>97.99999999999969</v>
       </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -2625,6 +3470,9 @@
       <c r="B282" t="n">
         <v>98.33333333333302</v>
       </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -2633,6 +3481,9 @@
       <c r="B283" t="n">
         <v>98.66666666666634</v>
       </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -2641,6 +3492,9 @@
       <c r="B284" t="n">
         <v>98.99999999999967</v>
       </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -2649,6 +3503,9 @@
       <c r="B285" t="n">
         <v>99.333333333333</v>
       </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -2657,6 +3514,9 @@
       <c r="B286" t="n">
         <v>99.66666666666633</v>
       </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -2665,6 +3525,9 @@
       <c r="B287" t="n">
         <v>99.99999999999966</v>
       </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -2673,6 +3536,9 @@
       <c r="B288" t="n">
         <v>100.333333333333</v>
       </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -2681,6 +3547,9 @@
       <c r="B289" t="n">
         <v>100.6666666666663</v>
       </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -2689,6 +3558,9 @@
       <c r="B290" t="n">
         <v>100.9999999999996</v>
       </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -2697,6 +3569,9 @@
       <c r="B291" t="n">
         <v>101.333333333333</v>
       </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -2705,6 +3580,9 @@
       <c r="B292" t="n">
         <v>101.6666666666663</v>
       </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -2713,6 +3591,9 @@
       <c r="B293" t="n">
         <v>101.9999999999996</v>
       </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -2721,6 +3602,9 @@
       <c r="B294" t="n">
         <v>102.333333333333</v>
       </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -2729,6 +3613,9 @@
       <c r="B295" t="n">
         <v>102.6666666666663</v>
       </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -2737,6 +3624,9 @@
       <c r="B296" t="n">
         <v>102.9999999999996</v>
       </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -2745,6 +3635,9 @@
       <c r="B297" t="n">
         <v>103.3333333333329</v>
       </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -2753,6 +3646,9 @@
       <c r="B298" t="n">
         <v>103.6666666666663</v>
       </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -2761,6 +3657,9 @@
       <c r="B299" t="n">
         <v>103.9999999999996</v>
       </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -2769,6 +3668,9 @@
       <c r="B300" t="n">
         <v>104.3333333333329</v>
       </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -2776,6 +3678,3309 @@
       </c>
       <c r="B301" t="n">
         <v>104.6666666666663</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>-5.972805882486636</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.734187872884132</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.3477237574503285</v>
+      </c>
+      <c r="B303" t="n">
+        <v>31.84818110493583</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>-2.11196297478546</v>
+      </c>
+      <c r="B304" t="n">
+        <v>13.27286308680652</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>6.573903460137384</v>
+      </c>
+      <c r="B305" t="n">
+        <v>90.17928780846728</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>7.37909787096941</v>
+      </c>
+      <c r="B306" t="n">
+        <v>52.4869104925025</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>5.941927741940457</v>
+      </c>
+      <c r="B307" t="n">
+        <v>9.937965036395102</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>-0.06731734859585004</v>
+      </c>
+      <c r="B308" t="n">
+        <v>36.9180738395896</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>9.284205736933959</v>
+      </c>
+      <c r="B309" t="n">
+        <v>57.29697773780565</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>6.221689126561845</v>
+      </c>
+      <c r="B310" t="n">
+        <v>50.33777636490701</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>6.519127063566891</v>
+      </c>
+      <c r="B311" t="n">
+        <v>41.68087128406705</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>-4.418503991120703</v>
+      </c>
+      <c r="B312" t="n">
+        <v>87.440130929036</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>8.890403760394715</v>
+      </c>
+      <c r="B313" t="n">
+        <v>97.488406668526</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.2053093136115827</v>
+      </c>
+      <c r="B314" t="n">
+        <v>58.20752535566587</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>-8.177178378044523</v>
+      </c>
+      <c r="B315" t="n">
+        <v>77.03581447869216</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>-8.772904081402848</v>
+      </c>
+      <c r="B316" t="n">
+        <v>84.22173605035024</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>-7.832827172446846</v>
+      </c>
+      <c r="B317" t="n">
+        <v>92.59293795030896</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>7.782884478222076</v>
+      </c>
+      <c r="B318" t="n">
+        <v>88.61367071095816</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>-5.929909158161532</v>
+      </c>
+      <c r="B319" t="n">
+        <v>10.74251798702866</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>-0.8065273384227449</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3.757999298696357</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>8.133011329093463</v>
+      </c>
+      <c r="B321" t="n">
+        <v>6.312692715011892</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>4.026656328500845</v>
+      </c>
+      <c r="B322" t="n">
+        <v>69.15482157918355</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>-6.568493900425945</v>
+      </c>
+      <c r="B323" t="n">
+        <v>90.61950087011256</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1.007869978390435</v>
+      </c>
+      <c r="B324" t="n">
+        <v>84.72060093686588</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>-6.46281710852162</v>
+      </c>
+      <c r="B325" t="n">
+        <v>20.26464475671812</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>-1.614895428749746</v>
+      </c>
+      <c r="B326" t="n">
+        <v>25.66989174954715</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>-1.399558208144359</v>
+      </c>
+      <c r="B327" t="n">
+        <v>10.31963340153758</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>4.647953304548638</v>
+      </c>
+      <c r="B328" t="n">
+        <v>67.41816019678951</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.6955625726123653</v>
+      </c>
+      <c r="B329" t="n">
+        <v>46.54664818726111</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>5.287472200255174</v>
+      </c>
+      <c r="B330" t="n">
+        <v>11.62279408594904</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>8.583227098708729</v>
+      </c>
+      <c r="B331" t="n">
+        <v>51.59294836227654</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>7.245658698156468</v>
+      </c>
+      <c r="B332" t="n">
+        <v>76.98835038855847</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>8.652712245875595</v>
+      </c>
+      <c r="B333" t="n">
+        <v>93.28554283761838</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>-2.28322665317264</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1.367436490945462</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>-8.945064511460771</v>
+      </c>
+      <c r="B335" t="n">
+        <v>69.45817272906363</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>-5.227997987594586</v>
+      </c>
+      <c r="B336" t="n">
+        <v>95.29808473154591</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>-7.056506648970451</v>
+      </c>
+      <c r="B337" t="n">
+        <v>89.7522556510576</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>-9.539038258742906</v>
+      </c>
+      <c r="B338" t="n">
+        <v>89.33603758208471</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>-0.1249256786057522</v>
+      </c>
+      <c r="B339" t="n">
+        <v>22.46944952075996</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.2498120385293099</v>
+      </c>
+      <c r="B340" t="n">
+        <v>21.13449969753928</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>4.750502825354383</v>
+      </c>
+      <c r="B341" t="n">
+        <v>13.13984571490282</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3.790344692177534</v>
+      </c>
+      <c r="B342" t="n">
+        <v>77.52282598718203</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>-0.7454720008036624</v>
+      </c>
+      <c r="B343" t="n">
+        <v>20.81016452386184</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>-3.503372021370083</v>
+      </c>
+      <c r="B344" t="n">
+        <v>44.82613382734174</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>-4.717605492312533</v>
+      </c>
+      <c r="B345" t="n">
+        <v>38.79105184279643</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>-9.456671387395183</v>
+      </c>
+      <c r="B346" t="n">
+        <v>99.98574403804705</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>4.462875831687956</v>
+      </c>
+      <c r="B347" t="n">
+        <v>11.01318431327013</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>-4.736070597714585</v>
+      </c>
+      <c r="B348" t="n">
+        <v>35.95851795491709</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>4.622674768239609</v>
+      </c>
+      <c r="B349" t="n">
+        <v>17.45362036256053</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>9.944385081612975</v>
+      </c>
+      <c r="B350" t="n">
+        <v>46.88474602814046</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>8.379925743654827</v>
+      </c>
+      <c r="B351" t="n">
+        <v>32.06350082083812</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>5.761095444314535</v>
+      </c>
+      <c r="B352" t="n">
+        <v>86.33390602301226</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>5.044881853062627</v>
+      </c>
+      <c r="B353" t="n">
+        <v>40.14296661541793</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>-9.623516900119188</v>
+      </c>
+      <c r="B354" t="n">
+        <v>63.4642443618126</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>4.756450623344223</v>
+      </c>
+      <c r="B355" t="n">
+        <v>79.55511298623969</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>-3.284971091983118</v>
+      </c>
+      <c r="B356" t="n">
+        <v>14.91203780741127</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.1990951080205008</v>
+      </c>
+      <c r="B357" t="n">
+        <v>37.11244255590414</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>8.340677981385955</v>
+      </c>
+      <c r="B358" t="n">
+        <v>97.40842469762038</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1.855365059886108</v>
+      </c>
+      <c r="B359" t="n">
+        <v>77.57751342281502</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>-2.211534193439448</v>
+      </c>
+      <c r="B360" t="n">
+        <v>16.19152199837084</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>-6.781248728970337</v>
+      </c>
+      <c r="B361" t="n">
+        <v>25.17223163325673</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>-8.505075890134208</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1.719825926607743</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>5.37464712285227</v>
+      </c>
+      <c r="B363" t="n">
+        <v>68.53681542455277</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>2.501356940035269</v>
+      </c>
+      <c r="B364" t="n">
+        <v>12.99221287735198</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>8.080522082986029</v>
+      </c>
+      <c r="B365" t="n">
+        <v>60.45780249504624</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>-8.08565229254887</v>
+      </c>
+      <c r="B366" t="n">
+        <v>21.84607320726725</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>-8.123644223531059</v>
+      </c>
+      <c r="B367" t="n">
+        <v>63.94750640537884</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>5.9066616530174</v>
+      </c>
+      <c r="B368" t="n">
+        <v>64.46001363254399</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>-8.315150982016736</v>
+      </c>
+      <c r="B369" t="n">
+        <v>35.25419020205857</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>-7.482717902756226</v>
+      </c>
+      <c r="B370" t="n">
+        <v>26.83435765363307</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>7.80680210031203</v>
+      </c>
+      <c r="B371" t="n">
+        <v>98.16313972584126</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>-7.797220369738122</v>
+      </c>
+      <c r="B372" t="n">
+        <v>84.01846050676433</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>-1.504552425237794</v>
+      </c>
+      <c r="B373" t="n">
+        <v>11.830591709171</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>-1.342660718337356</v>
+      </c>
+      <c r="B374" t="n">
+        <v>91.00319790273983</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>-1.796146639977067</v>
+      </c>
+      <c r="B375" t="n">
+        <v>91.9913106822351</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>6.245542127458734</v>
+      </c>
+      <c r="B376" t="n">
+        <v>85.44400276744355</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>-1.420418932721352</v>
+      </c>
+      <c r="B377" t="n">
+        <v>49.94055695030109</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>-6.229946464106302</v>
+      </c>
+      <c r="B378" t="n">
+        <v>82.50645825793822</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.07434117700706011</v>
+      </c>
+      <c r="B379" t="n">
+        <v>60.60974850711325</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>-7.382507095251663</v>
+      </c>
+      <c r="B380" t="n">
+        <v>67.59115660581573</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>2.579688555198121</v>
+      </c>
+      <c r="B381" t="n">
+        <v>5.439810314243565</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>-9.106800120174416</v>
+      </c>
+      <c r="B382" t="n">
+        <v>82.0141987396225</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>-0.5996798529822698</v>
+      </c>
+      <c r="B383" t="n">
+        <v>8.496538825742562</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>7.969318406679388</v>
+      </c>
+      <c r="B384" t="n">
+        <v>85.43563385190737</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.2175078173096736</v>
+      </c>
+      <c r="B385" t="n">
+        <v>85.47305644017939</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>-7.803418011024648</v>
+      </c>
+      <c r="B386" t="n">
+        <v>61.10223431569687</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>1.258904814985071</v>
+      </c>
+      <c r="B387" t="n">
+        <v>52.62429758126558</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>-9.039838489436264</v>
+      </c>
+      <c r="B388" t="n">
+        <v>53.20897762817107</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.4044892136129263</v>
+      </c>
+      <c r="B389" t="n">
+        <v>86.22346902163304</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.9481079014085392</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2.209536328912309</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.7317228427902158</v>
+      </c>
+      <c r="B391" t="n">
+        <v>91.30067341730435</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>-8.425917464466382</v>
+      </c>
+      <c r="B392" t="n">
+        <v>49.36487088538446</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>-1.228092324005228</v>
+      </c>
+      <c r="B393" t="n">
+        <v>13.7452260984732</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>-3.072721424171974</v>
+      </c>
+      <c r="B394" t="n">
+        <v>91.42363725920819</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>-4.561224205179246</v>
+      </c>
+      <c r="B395" t="n">
+        <v>18.67230765861427</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>-2.965457686499491</v>
+      </c>
+      <c r="B396" t="n">
+        <v>51.01355324997926</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>7.133932234459699</v>
+      </c>
+      <c r="B397" t="n">
+        <v>99.01781257766987</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>3.17618812907746</v>
+      </c>
+      <c r="B398" t="n">
+        <v>77.24610227475696</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>8.398906847559285</v>
+      </c>
+      <c r="B399" t="n">
+        <v>20.67456985041173</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>6.196533096645688</v>
+      </c>
+      <c r="B400" t="n">
+        <v>31.22612551103334</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>-7.013738565115972</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1.561912045055502</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>-7.411343801492949</v>
+      </c>
+      <c r="B402" t="n">
+        <v>56.66009158381854</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>6.731037022903575</v>
+      </c>
+      <c r="B403" t="n">
+        <v>10.40984924101448</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.6511133433350587</v>
+      </c>
+      <c r="B404" t="n">
+        <v>31.16950026127575</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>-5.057603706150234</v>
+      </c>
+      <c r="B405" t="n">
+        <v>32.02759986894969</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>-4.190622380162338</v>
+      </c>
+      <c r="B406" t="n">
+        <v>77.15598781131435</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>-2.807582561329522</v>
+      </c>
+      <c r="B407" t="n">
+        <v>62.75218709704702</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.366100189098935</v>
+      </c>
+      <c r="B408" t="n">
+        <v>56.91211208917964</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>-4.674813910987263</v>
+      </c>
+      <c r="B409" t="n">
+        <v>22.23367628495134</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>-6.485125826732865</v>
+      </c>
+      <c r="B410" t="n">
+        <v>30.83305917410411</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>6.971924012523186</v>
+      </c>
+      <c r="B411" t="n">
+        <v>52.43401604811881</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>2.431326543253068</v>
+      </c>
+      <c r="B412" t="n">
+        <v>54.01182676857657</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>2.017419175751197</v>
+      </c>
+      <c r="B413" t="n">
+        <v>76.76144128214621</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>7.929258715608565</v>
+      </c>
+      <c r="B414" t="n">
+        <v>79.1297964804143</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>5.180424161720548</v>
+      </c>
+      <c r="B415" t="n">
+        <v>66.51486877737898</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>-5.891273782405626</v>
+      </c>
+      <c r="B416" t="n">
+        <v>34.74792926234699</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>-9.285760964358156</v>
+      </c>
+      <c r="B417" t="n">
+        <v>55.58216469019369</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>-4.135777594455239</v>
+      </c>
+      <c r="B418" t="n">
+        <v>25.4048399886623</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>-5.276657168203107</v>
+      </c>
+      <c r="B419" t="n">
+        <v>67.8047162826295</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>2.943332347145871</v>
+      </c>
+      <c r="B420" t="n">
+        <v>47.83913807777013</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>-7.233020645338668</v>
+      </c>
+      <c r="B421" t="n">
+        <v>70.41720867142784</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>2.49030815213052</v>
+      </c>
+      <c r="B422" t="n">
+        <v>72.87011430095262</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>-8.413511473554006</v>
+      </c>
+      <c r="B423" t="n">
+        <v>53.86723820426087</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>-5.979269796307984</v>
+      </c>
+      <c r="B424" t="n">
+        <v>27.53031361960718</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1.52424141260007</v>
+      </c>
+      <c r="B425" t="n">
+        <v>60.17158053765681</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>-3.000674390135332</v>
+      </c>
+      <c r="B426" t="n">
+        <v>55.0544527302381</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>6.996286393576007</v>
+      </c>
+      <c r="B427" t="n">
+        <v>66.12541049227259</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>-4.111537316426592</v>
+      </c>
+      <c r="B428" t="n">
+        <v>97.984219597978</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>-8.328106558892053</v>
+      </c>
+      <c r="B429" t="n">
+        <v>8.124735286975449</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>2.842301790672067</v>
+      </c>
+      <c r="B430" t="n">
+        <v>58.32568031411607</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>-6.06209312337387</v>
+      </c>
+      <c r="B431" t="n">
+        <v>41.53418763023345</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>-9.912405874991029</v>
+      </c>
+      <c r="B432" t="n">
+        <v>5.512295499457965</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>-0.4810054434603845</v>
+      </c>
+      <c r="B433" t="n">
+        <v>7.107604319522121</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>-7.011697717265852</v>
+      </c>
+      <c r="B434" t="n">
+        <v>40.46654846626123</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>7.834967674673379</v>
+      </c>
+      <c r="B435" t="n">
+        <v>27.31816366299524</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>3.952572415968497</v>
+      </c>
+      <c r="B436" t="n">
+        <v>92.09304682538868</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>8.438731331551899</v>
+      </c>
+      <c r="B437" t="n">
+        <v>11.16254347032232</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.6461307882971603</v>
+      </c>
+      <c r="B438" t="n">
+        <v>56.21298671965373</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>-5.137886186555887</v>
+      </c>
+      <c r="B439" t="n">
+        <v>76.49319700788899</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>-3.512827798167864</v>
+      </c>
+      <c r="B440" t="n">
+        <v>28.5914959447508</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>3.742874958055097</v>
+      </c>
+      <c r="B441" t="n">
+        <v>62.61475445808004</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>5.439644652356446</v>
+      </c>
+      <c r="B442" t="n">
+        <v>32.47627301648077</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.592274407654612</v>
+      </c>
+      <c r="B443" t="n">
+        <v>64.907854364941</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>3.04686992032126</v>
+      </c>
+      <c r="B444" t="n">
+        <v>16.29675188614084</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1.892193106550089</v>
+      </c>
+      <c r="B445" t="n">
+        <v>74.47197691898181</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>8.587946907585547</v>
+      </c>
+      <c r="B446" t="n">
+        <v>53.3802344994935</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>6.036776619516115</v>
+      </c>
+      <c r="B447" t="n">
+        <v>8.08125544592767</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>-2.4896248208417</v>
+      </c>
+      <c r="B448" t="n">
+        <v>8.489782595162975</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>2.100315668702972</v>
+      </c>
+      <c r="B449" t="n">
+        <v>95.22166585001752</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>-2.403454362917676</v>
+      </c>
+      <c r="B450" t="n">
+        <v>60.99059177678149</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>4.816301185261818</v>
+      </c>
+      <c r="B451" t="n">
+        <v>3.073182901418259</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.820115373717492</v>
+      </c>
+      <c r="B452" t="n">
+        <v>31.03524809625826</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>-4.399866332965368</v>
+      </c>
+      <c r="B453" t="n">
+        <v>12.95369185874228</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>-6.65442229378916</v>
+      </c>
+      <c r="B454" t="n">
+        <v>44.22295895115581</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>5.417596047259403</v>
+      </c>
+      <c r="B455" t="n">
+        <v>52.45639032538413</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>7.566390029938475</v>
+      </c>
+      <c r="B456" t="n">
+        <v>68.46852933951678</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>-7.153808481602876</v>
+      </c>
+      <c r="B457" t="n">
+        <v>3.258424515821479</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1.804504374038311</v>
+      </c>
+      <c r="B458" t="n">
+        <v>64.59537298777373</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>-0.4746281428063011</v>
+      </c>
+      <c r="B459" t="n">
+        <v>93.02295405564863</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>-1.346480816522359</v>
+      </c>
+      <c r="B460" t="n">
+        <v>19.21854104489532</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>-1.418290133244394</v>
+      </c>
+      <c r="B461" t="n">
+        <v>14.65446606768046</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>1.03560024426276</v>
+      </c>
+      <c r="B462" t="n">
+        <v>7.845471458120867</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>2.142895492281321</v>
+      </c>
+      <c r="B463" t="n">
+        <v>27.17856953229071</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>8.919764188486646</v>
+      </c>
+      <c r="B464" t="n">
+        <v>9.879852070776741</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>-3.737612068983502</v>
+      </c>
+      <c r="B465" t="n">
+        <v>84.56991762151118</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>-0.7392789568413392</v>
+      </c>
+      <c r="B466" t="n">
+        <v>99.84220815323684</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>-7.570591317024416</v>
+      </c>
+      <c r="B467" t="n">
+        <v>47.28163018553819</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>-9.31367764934145</v>
+      </c>
+      <c r="B468" t="n">
+        <v>96.19444148483652</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1.449513114478043</v>
+      </c>
+      <c r="B469" t="n">
+        <v>91.13462822277492</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>-1.289914398683942</v>
+      </c>
+      <c r="B470" t="n">
+        <v>70.46953516622698</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>-1.914410015058859</v>
+      </c>
+      <c r="B471" t="n">
+        <v>83.158803402773</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>4.380044251706112</v>
+      </c>
+      <c r="B472" t="n">
+        <v>47.64290232849627</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>-6.481173023609039</v>
+      </c>
+      <c r="B473" t="n">
+        <v>73.3738056313085</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>-6.186340933469509</v>
+      </c>
+      <c r="B474" t="n">
+        <v>65.25392539137535</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>2.787194839141026</v>
+      </c>
+      <c r="B475" t="n">
+        <v>88.02745128341584</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>-1.089066789544361</v>
+      </c>
+      <c r="B476" t="n">
+        <v>80.20605703911133</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>-1.399259149974252</v>
+      </c>
+      <c r="B477" t="n">
+        <v>59.99018003102159</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>-7.137246508210266</v>
+      </c>
+      <c r="B478" t="n">
+        <v>97.09830681332164</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>6.328043176069723</v>
+      </c>
+      <c r="B479" t="n">
+        <v>80.18615394943646</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>-8.872610685905908</v>
+      </c>
+      <c r="B480" t="n">
+        <v>71.98766737195734</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>6.749884488560049</v>
+      </c>
+      <c r="B481" t="n">
+        <v>76.10774446769926</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>5.246600930317458</v>
+      </c>
+      <c r="B482" t="n">
+        <v>14.2275192433249</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>-4.324958193918746</v>
+      </c>
+      <c r="B483" t="n">
+        <v>61.91673064450838</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>-7.803984295861048</v>
+      </c>
+      <c r="B484" t="n">
+        <v>94.56710470453648</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>-3.032914643293547</v>
+      </c>
+      <c r="B485" t="n">
+        <v>86.70909151478293</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>2.752664727382157</v>
+      </c>
+      <c r="B486" t="n">
+        <v>81.93345348845698</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>4.312928368558799</v>
+      </c>
+      <c r="B487" t="n">
+        <v>13.0371940653185</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>-1.854122701946219</v>
+      </c>
+      <c r="B488" t="n">
+        <v>2.421202361782537</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>8.628764185065108</v>
+      </c>
+      <c r="B489" t="n">
+        <v>2.730102494067466</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>9.092589986188184</v>
+      </c>
+      <c r="B490" t="n">
+        <v>14.64502912049567</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>2.277299038550236</v>
+      </c>
+      <c r="B491" t="n">
+        <v>51.98990784458658</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>-5.412329316656632</v>
+      </c>
+      <c r="B492" t="n">
+        <v>6.98261324949595</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>-8.232379901112841</v>
+      </c>
+      <c r="B493" t="n">
+        <v>81.85704920836667</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>8.360722799781769</v>
+      </c>
+      <c r="B494" t="n">
+        <v>35.25723363294174</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>-6.463422163873394</v>
+      </c>
+      <c r="B495" t="n">
+        <v>8.047631123235476</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.4548568931424075</v>
+      </c>
+      <c r="B496" t="n">
+        <v>86.73508504325049</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>9.329926177092464</v>
+      </c>
+      <c r="B497" t="n">
+        <v>99.50510954246276</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>-6.728717800630624</v>
+      </c>
+      <c r="B498" t="n">
+        <v>35.0244234782235</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>2.303427225588115</v>
+      </c>
+      <c r="B499" t="n">
+        <v>28.39781145669411</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>-9.833900801054128</v>
+      </c>
+      <c r="B500" t="n">
+        <v>30.75648342480559</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>-7.316681368651745</v>
+      </c>
+      <c r="B501" t="n">
+        <v>2.954152778348895</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>4.726907448229834</v>
+      </c>
+      <c r="B502" t="n">
+        <v>64.64644252667647</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.6885074726219962</v>
+      </c>
+      <c r="B503" t="n">
+        <v>10.82493423710742</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>-0.4337318682215816</v>
+      </c>
+      <c r="B504" t="n">
+        <v>53.83068415692438</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>9.413444168467695</v>
+      </c>
+      <c r="B505" t="n">
+        <v>31.39594304956454</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>-2.347580150501491</v>
+      </c>
+      <c r="B506" t="n">
+        <v>7.691393870986363</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>-8.645734237406238</v>
+      </c>
+      <c r="B507" t="n">
+        <v>99.76091097710905</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1.972267273290653</v>
+      </c>
+      <c r="B508" t="n">
+        <v>49.7799001084036</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>-0.000797420404810012</v>
+      </c>
+      <c r="B509" t="n">
+        <v>95.84278363196545</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>1.695587554316113</v>
+      </c>
+      <c r="B510" t="n">
+        <v>84.49192487950283</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>-8.682397988970891</v>
+      </c>
+      <c r="B511" t="n">
+        <v>81.77892000163682</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>-2.067719784995479</v>
+      </c>
+      <c r="B512" t="n">
+        <v>36.43394038343612</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>-5.735590396764301</v>
+      </c>
+      <c r="B513" t="n">
+        <v>33.49866722848734</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>-3.434524145152968</v>
+      </c>
+      <c r="B514" t="n">
+        <v>95.19312326539409</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>-3.867044399459836</v>
+      </c>
+      <c r="B515" t="n">
+        <v>40.75044055060521</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1.672395415444344</v>
+      </c>
+      <c r="B516" t="n">
+        <v>50.58736021250841</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>-9.278260264648374</v>
+      </c>
+      <c r="B517" t="n">
+        <v>35.82820229508486</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>-0.03720435366151342</v>
+      </c>
+      <c r="B518" t="n">
+        <v>76.50380544131461</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>-2.890044231807096</v>
+      </c>
+      <c r="B519" t="n">
+        <v>99.19611918351177</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>-3.687691351253026</v>
+      </c>
+      <c r="B520" t="n">
+        <v>30.61788876556825</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>2.165573379015726</v>
+      </c>
+      <c r="B521" t="n">
+        <v>24.60080469625844</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>-9.719466163766647</v>
+      </c>
+      <c r="B522" t="n">
+        <v>88.9843664636969</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>9.0915255480433</v>
+      </c>
+      <c r="B523" t="n">
+        <v>18.88246821156415</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>8.367257786226403</v>
+      </c>
+      <c r="B524" t="n">
+        <v>64.95223924369635</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>4.304779005548598</v>
+      </c>
+      <c r="B525" t="n">
+        <v>76.46673349930612</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>-2.63976970902976</v>
+      </c>
+      <c r="B526" t="n">
+        <v>47.2114277900606</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>-5.723568313097733</v>
+      </c>
+      <c r="B527" t="n">
+        <v>98.29299777602286</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>8.353264749579445</v>
+      </c>
+      <c r="B528" t="n">
+        <v>74.5160946856396</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.1360244689797803</v>
+      </c>
+      <c r="B529" t="n">
+        <v>98.66810643992568</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.6404193345449904</v>
+      </c>
+      <c r="B530" t="n">
+        <v>51.92867737265811</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>1.419506086657483</v>
+      </c>
+      <c r="B531" t="n">
+        <v>38.44705499134162</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>-4.803061751951718</v>
+      </c>
+      <c r="B532" t="n">
+        <v>47.51283003866922</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>-7.019182482873763</v>
+      </c>
+      <c r="B533" t="n">
+        <v>21.92327479086498</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>6.212772291768097</v>
+      </c>
+      <c r="B534" t="n">
+        <v>95.59253900254016</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>8.016296904327486</v>
+      </c>
+      <c r="B535" t="n">
+        <v>94.79632175475852</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>-6.767674046347909</v>
+      </c>
+      <c r="B536" t="n">
+        <v>65.79944839332782</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>-8.635610876165718</v>
+      </c>
+      <c r="B537" t="n">
+        <v>53.62814889628563</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.8049208652238011</v>
+      </c>
+      <c r="B538" t="n">
+        <v>48.54934778818172</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>6.063026051095569</v>
+      </c>
+      <c r="B539" t="n">
+        <v>95.47311566803492</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>9.303441373795593</v>
+      </c>
+      <c r="B540" t="n">
+        <v>94.69033123698757</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>9.58371423182102</v>
+      </c>
+      <c r="B541" t="n">
+        <v>19.18213408709845</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>-0.2170576108431721</v>
+      </c>
+      <c r="B542" t="n">
+        <v>88.59585982500869</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>1.182550562321738</v>
+      </c>
+      <c r="B543" t="n">
+        <v>55.99314861961601</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>9.212868295102982</v>
+      </c>
+      <c r="B544" t="n">
+        <v>33.28673889066594</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>1.666330596225812</v>
+      </c>
+      <c r="B545" t="n">
+        <v>45.06799282375723</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>8.832940835028637</v>
+      </c>
+      <c r="B546" t="n">
+        <v>62.69329962906394</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>-9.359540029786142</v>
+      </c>
+      <c r="B547" t="n">
+        <v>30.74662784869381</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>-1.5162030363695</v>
+      </c>
+      <c r="B548" t="n">
+        <v>93.3552759262695</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>-1.727959466918279</v>
+      </c>
+      <c r="B549" t="n">
+        <v>40.7547443084863</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>-6.305504777769921</v>
+      </c>
+      <c r="B550" t="n">
+        <v>89.66840446615025</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.4956930417515988</v>
+      </c>
+      <c r="B551" t="n">
+        <v>83.01293367150525</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>6.576307563900521</v>
+      </c>
+      <c r="B552" t="n">
+        <v>43.73487890350881</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>-1.451503700282416</v>
+      </c>
+      <c r="B553" t="n">
+        <v>4.231152262867576</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>-0.5636200334961714</v>
+      </c>
+      <c r="B554" t="n">
+        <v>75.43839681446636</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>6.367337185563841</v>
+      </c>
+      <c r="B555" t="n">
+        <v>69.79758467319699</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>8.593387123156766</v>
+      </c>
+      <c r="B556" t="n">
+        <v>61.37461515754522</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>-7.114617214958903</v>
+      </c>
+      <c r="B557" t="n">
+        <v>12.76540124878318</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>5.79605305380227</v>
+      </c>
+      <c r="B558" t="n">
+        <v>44.61348550735136</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>-5.360851189541926</v>
+      </c>
+      <c r="B559" t="n">
+        <v>54.81770375118109</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>-9.754673679297143</v>
+      </c>
+      <c r="B560" t="n">
+        <v>29.7269530114194</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>-3.524951866874819</v>
+      </c>
+      <c r="B561" t="n">
+        <v>34.7879035688303</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>-7.57975189435113</v>
+      </c>
+      <c r="B562" t="n">
+        <v>34.54727377732652</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>-3.593038530073745</v>
+      </c>
+      <c r="B563" t="n">
+        <v>83.70680617060253</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>-7.70436716543588</v>
+      </c>
+      <c r="B564" t="n">
+        <v>20.71088246632897</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>8.858959420429581</v>
+      </c>
+      <c r="B565" t="n">
+        <v>89.5625877316569</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>9.426508542111591</v>
+      </c>
+      <c r="B566" t="n">
+        <v>28.20556499197758</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>9.770761589972064</v>
+      </c>
+      <c r="B567" t="n">
+        <v>74.33329198884975</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>-2.36376940715636</v>
+      </c>
+      <c r="B568" t="n">
+        <v>81.42781980620499</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>-5.428847196617945</v>
+      </c>
+      <c r="B569" t="n">
+        <v>15.32100087235067</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>9.005473634277095</v>
+      </c>
+      <c r="B570" t="n">
+        <v>34.11647031168187</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.5889429532590373</v>
+      </c>
+      <c r="B571" t="n">
+        <v>31.85419589376337</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>7.333819096638116</v>
+      </c>
+      <c r="B572" t="n">
+        <v>34.37138543302613</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>8.625457960538114</v>
+      </c>
+      <c r="B573" t="n">
+        <v>92.61383143577729</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>6.029533295245198</v>
+      </c>
+      <c r="B574" t="n">
+        <v>25.91537250741219</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>1.049044487811932</v>
+      </c>
+      <c r="B575" t="n">
+        <v>74.87516877629528</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>3.257837725940746</v>
+      </c>
+      <c r="B576" t="n">
+        <v>99.2043766871198</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>-1.705981534914763</v>
+      </c>
+      <c r="B577" t="n">
+        <v>4.243463271334091</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>-3.775627050136501</v>
+      </c>
+      <c r="B578" t="n">
+        <v>97.74376537776499</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>-2.589327127200085</v>
+      </c>
+      <c r="B579" t="n">
+        <v>29.32911350400753</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>1.105322034712316</v>
+      </c>
+      <c r="B580" t="n">
+        <v>37.03064318421651</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>-4.702510008676557</v>
+      </c>
+      <c r="B581" t="n">
+        <v>15.7242467973102</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>-2.495179486644961</v>
+      </c>
+      <c r="B582" t="n">
+        <v>66.38933189382942</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>-5.90221401484869</v>
+      </c>
+      <c r="B583" t="n">
+        <v>87.23012458306737</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>-0.4597598569736245</v>
+      </c>
+      <c r="B584" t="n">
+        <v>55.55608794013439</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>-3.512429965872011</v>
+      </c>
+      <c r="B585" t="n">
+        <v>2.520972542099198</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>-0.8606530771107135</v>
+      </c>
+      <c r="B586" t="n">
+        <v>97.27392880223658</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>-0.6749839967006181</v>
+      </c>
+      <c r="B587" t="n">
+        <v>62.96449094413222</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>5.739174946709614</v>
+      </c>
+      <c r="B588" t="n">
+        <v>15.67403386033129</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>-9.43093663283463</v>
+      </c>
+      <c r="B589" t="n">
+        <v>12.85935334178411</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>-5.578194035658255</v>
+      </c>
+      <c r="B590" t="n">
+        <v>57.22523915270671</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>3.788733302233332</v>
+      </c>
+      <c r="B591" t="n">
+        <v>70.36132269205541</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>3.531280579305143</v>
+      </c>
+      <c r="B592" t="n">
+        <v>93.46729559395281</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>8.096134678893723</v>
+      </c>
+      <c r="B593" t="n">
+        <v>67.73229243697185</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>-9.826785456555303</v>
+      </c>
+      <c r="B594" t="n">
+        <v>89.98443314957004</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>-0.8474107099324772</v>
+      </c>
+      <c r="B595" t="n">
+        <v>52.75545713995967</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>-4.955112309083141</v>
+      </c>
+      <c r="B596" t="n">
+        <v>53.04504676729734</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>1.862135396895621</v>
+      </c>
+      <c r="B597" t="n">
+        <v>8.524368789906534</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>-4.783975072178135</v>
+      </c>
+      <c r="B598" t="n">
+        <v>16.49184572614736</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>8.539540331140593</v>
+      </c>
+      <c r="B599" t="n">
+        <v>72.20752510611173</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>5.122579454337284</v>
+      </c>
+      <c r="B600" t="n">
+        <v>39.7975494700926</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>-0.8140378290213732</v>
+      </c>
+      <c r="B601" t="n">
+        <v>17.96314626061752</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
